--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/148.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/148.xlsx
@@ -479,13 +479,13 @@
         <v>2.678143122444611</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.28723048586786</v>
+        <v>-11.28338134883239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6131229205417814</v>
+        <v>0.5522829892362804</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.225389531725959</v>
+        <v>-5.25907602693772</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>3.148635772691132</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47865304571674</v>
+        <v>-11.48051215272026</v>
       </c>
       <c r="F3" t="n">
-        <v>0.687081339294692</v>
+        <v>0.6216329173889034</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.109483374668158</v>
+        <v>-5.142711639280458</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>3.590838919865812</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02410456670873</v>
+        <v>-12.02939385705679</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7006973342500871</v>
+        <v>0.6399621413673199</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.803175857383135</v>
+        <v>-4.836823075686371</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>3.941794490089916</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71260258854942</v>
+        <v>-12.71743364829802</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7133968680065613</v>
+        <v>0.6512215218112043</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.888328195065721</v>
+        <v>-4.921058952170037</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>4.223593071993725</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31491398078303</v>
+        <v>-13.32101499390727</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7458003175398334</v>
+        <v>0.6861910627014546</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.182744718016578</v>
+        <v>-4.224050933482224</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>4.446893646827902</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.59578315364658</v>
+        <v>-13.61057745585773</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8594807831145409</v>
+        <v>0.7940978227229608</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.195994128492405</v>
+        <v>-4.240167558280389</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>4.630549534252134</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17265620145871</v>
+        <v>-14.18822294953752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9400115378939979</v>
+        <v>0.8784253453265185</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.781099051438106</v>
+        <v>-3.822496913023643</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>4.798889303895072</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.96529040010249</v>
+        <v>-14.97994068698238</v>
       </c>
       <c r="F9" t="n">
-        <v>1.163065101408485</v>
+        <v>1.101806216412049</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.413035141648661</v>
+        <v>-3.459408078314055</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.973893240481986</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56131748697207</v>
+        <v>-15.57783997315833</v>
       </c>
       <c r="F10" t="n">
-        <v>1.208835792143159</v>
+        <v>1.144316923739133</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.713199185547035</v>
+        <v>-2.765097074011638</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>5.167252852000278</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.16602477062571</v>
+        <v>-16.18262581062902</v>
       </c>
       <c r="F11" t="n">
-        <v>1.154843135223881</v>
+        <v>1.092877265873991</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.267759765962989</v>
+        <v>-2.326806051779174</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.394096908738614</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.6379891957671</v>
+        <v>-16.65764074233253</v>
       </c>
       <c r="F12" t="n">
-        <v>1.183986601349563</v>
+        <v>1.124482084933918</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.845493722408799</v>
+        <v>-1.903387885574911</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>5.650537436198925</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.43507477737706</v>
+        <v>-17.45688655391138</v>
       </c>
       <c r="F13" t="n">
-        <v>1.404068212118978</v>
+        <v>1.342953342453801</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.053540323512789</v>
+        <v>-1.113476885922211</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>5.93499336327916</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.24814606075678</v>
+        <v>-18.26875334542965</v>
       </c>
       <c r="F14" t="n">
-        <v>1.607836813547603</v>
+        <v>1.549026189182569</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8535030283940562</v>
+        <v>-0.9056758552183346</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>6.228374673745957</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09021679493091</v>
+        <v>-19.10824489594397</v>
       </c>
       <c r="F15" t="n">
-        <v>1.657666118163212</v>
+        <v>1.599824324208467</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4209464348062686</v>
+        <v>-0.4719933235861586</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>6.500808774798847</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08486522642253</v>
+        <v>-20.09748620636195</v>
       </c>
       <c r="F16" t="n">
-        <v>1.98107218295953</v>
+        <v>1.921633128058093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1471285854962255</v>
+        <v>0.09297882094284646</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>6.719917123235728</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.79770183924599</v>
+        <v>-20.81240449533725</v>
       </c>
       <c r="F17" t="n">
-        <v>2.043417729091829</v>
+        <v>1.988639534002047</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2482797172514011</v>
+        <v>0.2010426885984534</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>6.844103499397079</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70774780977437</v>
+        <v>-21.72195295835764</v>
       </c>
       <c r="F18" t="n">
-        <v>2.163055192459522</v>
+        <v>2.107622382227654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8080934944607661</v>
+        <v>0.7580154360911638</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>6.841416675265907</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71462445212015</v>
+        <v>-22.72449604846281</v>
       </c>
       <c r="F19" t="n">
-        <v>2.262373401816856</v>
+        <v>2.207647575938441</v>
       </c>
       <c r="G19" t="n">
-        <v>1.026813505734642</v>
+        <v>0.9825484298267659</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>6.679018953180396</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07294768859535</v>
+        <v>-23.08812166758891</v>
       </c>
       <c r="F20" t="n">
-        <v>2.563129782696987</v>
+        <v>2.508953833537925</v>
       </c>
       <c r="G20" t="n">
-        <v>1.628810682700048</v>
+        <v>1.576179625276309</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>6.338887940468012</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.02733728884866</v>
+        <v>-24.03713033137427</v>
       </c>
       <c r="F21" t="n">
-        <v>2.688213644046838</v>
+        <v>2.639222246813099</v>
       </c>
       <c r="G21" t="n">
-        <v>1.736141381396518</v>
+        <v>1.689951736970909</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>5.81185056834468</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.36871908544666</v>
+        <v>-24.38318608008677</v>
       </c>
       <c r="F22" t="n">
-        <v>2.771454505514532</v>
+        <v>2.721651385504607</v>
       </c>
       <c r="G22" t="n">
-        <v>2.005580973879241</v>
+        <v>1.957506037844423</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>5.099587926739976</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.90497980984376</v>
+        <v>-24.92023234265438</v>
       </c>
       <c r="F23" t="n">
-        <v>2.708192498183312</v>
+        <v>2.663154976407774</v>
       </c>
       <c r="G23" t="n">
-        <v>2.549932741432527</v>
+        <v>2.496201930570083</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.220948284255254</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.43981347323112</v>
+        <v>-25.44863768534644</v>
       </c>
       <c r="F24" t="n">
-        <v>2.592247064216986</v>
+        <v>2.550299325912096</v>
       </c>
       <c r="G24" t="n">
-        <v>2.342603033630953</v>
+        <v>2.292983205860812</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.195303502203605</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58342294310201</v>
+        <v>-25.59415863143223</v>
       </c>
       <c r="F25" t="n">
-        <v>2.715943141465614</v>
+        <v>2.67844678612691</v>
       </c>
       <c r="G25" t="n">
-        <v>2.251454421246856</v>
+        <v>2.20461016167916</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.059296034862246</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66200294475805</v>
+        <v>-25.66987141876593</v>
       </c>
       <c r="F26" t="n">
-        <v>2.881351295567981</v>
+        <v>2.840189095433594</v>
       </c>
       <c r="G26" t="n">
-        <v>2.253575374307216</v>
+        <v>2.206102684203117</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8477631733683041</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.418315911965</v>
+        <v>-25.4286064619986</v>
       </c>
       <c r="F27" t="n">
-        <v>2.580830576139001</v>
+        <v>2.543596066857132</v>
       </c>
       <c r="G27" t="n">
-        <v>1.96643498838248</v>
+        <v>1.926136880235647</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.4002586836240579</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51331366138457</v>
+        <v>-25.51907427463492</v>
       </c>
       <c r="F28" t="n">
-        <v>2.847468415813594</v>
+        <v>2.808715199402085</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920192974745504</v>
+        <v>1.876438498648455</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.636456429980496</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7285380277997</v>
+        <v>-25.72975561196398</v>
       </c>
       <c r="F29" t="n">
-        <v>2.677373217293889</v>
+        <v>2.644694829400941</v>
       </c>
       <c r="G29" t="n">
-        <v>1.821241349867738</v>
+        <v>1.774816043990977</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.822326449590498</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.38098975656324</v>
+        <v>-25.38771920022389</v>
       </c>
       <c r="F30" t="n">
-        <v>2.649277135395545</v>
+        <v>2.614058840751301</v>
       </c>
       <c r="G30" t="n">
-        <v>1.953630716203272</v>
+        <v>1.900345043637447</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.911274677229181</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.61464490202565</v>
+        <v>-24.62785503559295</v>
       </c>
       <c r="F31" t="n">
-        <v>2.561296860299146</v>
+        <v>2.527283057516341</v>
       </c>
       <c r="G31" t="n">
-        <v>1.424727866003222</v>
+        <v>1.370839947506678</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.865709284075166</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.73971567107266</v>
+        <v>-24.74689025302992</v>
       </c>
       <c r="F32" t="n">
-        <v>2.541658406036556</v>
+        <v>2.50793263391627</v>
       </c>
       <c r="G32" t="n">
-        <v>1.531142103500772</v>
+        <v>1.468141942226386</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.655951332653164</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.1695196977098</v>
+        <v>-24.17944366326383</v>
       </c>
       <c r="F33" t="n">
-        <v>2.596017647435403</v>
+        <v>2.560170922254757</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7698377855572425</v>
+        <v>0.7144573445367411</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.252986703326996</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52427864445817</v>
+        <v>-23.5368996243976</v>
       </c>
       <c r="F34" t="n">
-        <v>2.573001379039649</v>
+        <v>2.535112254615693</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7017970876887921</v>
+        <v>0.6468225080563843</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.643194115900886</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88877826452079</v>
+        <v>-22.90626958111734</v>
       </c>
       <c r="F35" t="n">
-        <v>2.448074625323899</v>
+        <v>2.408954824432821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7552791447972431</v>
+        <v>0.696062659044116</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.81859666256237</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08498942385586</v>
+        <v>-22.10255929426946</v>
       </c>
       <c r="F36" t="n">
-        <v>2.302671509963689</v>
+        <v>2.265882138978438</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7721944000687532</v>
+        <v>0.7082908698982883</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.783718460482189</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.13838974379338</v>
+        <v>-21.16361861136939</v>
       </c>
       <c r="F37" t="n">
-        <v>2.343571864041241</v>
+        <v>2.306154062519588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7105165613813816</v>
+        <v>0.6466523081194419</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.553429964242017</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.0105041296354</v>
+        <v>-21.02766813866091</v>
       </c>
       <c r="F38" t="n">
-        <v>2.173267188676068</v>
+        <v>2.13611123321125</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4166860087045235</v>
+        <v>0.358019399670749</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.150644437467351</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.15638847684688</v>
+        <v>-20.17924763760853</v>
       </c>
       <c r="F39" t="n">
-        <v>2.413537130427425</v>
+        <v>2.373396129914693</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2518801005328757</v>
+        <v>0.1962639980612234</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.60557275750684</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.6388366532106</v>
+        <v>-19.66246825983992</v>
       </c>
       <c r="F40" t="n">
-        <v>2.251061652161605</v>
+        <v>2.210213667295419</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.06902533442067191</v>
+        <v>-0.1214207303932596</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.953440204936625</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.6876808517592</v>
+        <v>-18.7216291930278</v>
       </c>
       <c r="F41" t="n">
-        <v>2.470122063309365</v>
+        <v>2.430740416361453</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1343952025094102</v>
+        <v>-0.1892912283247676</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.235132498682098</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.41807105933954</v>
+        <v>-18.44038034338184</v>
       </c>
       <c r="F42" t="n">
-        <v>2.479731813595192</v>
+        <v>2.444120749865697</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.3808970804134286</v>
+        <v>-0.4334364917172753</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.486971433051848</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.49896521524469</v>
+        <v>-17.52736242010839</v>
       </c>
       <c r="F43" t="n">
-        <v>2.830108022245465</v>
+        <v>2.79009794476115</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.3848509558716299</v>
+        <v>-0.4343660452190378</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.748464513937554</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.04963738171665</v>
+        <v>-17.08010317042935</v>
       </c>
       <c r="F44" t="n">
-        <v>2.764698877248202</v>
+        <v>2.724688799763887</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7122108961261485</v>
+        <v>-0.759644309321722</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.049386745538441</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.32216357431614</v>
+        <v>-16.35617737709894</v>
       </c>
       <c r="F45" t="n">
-        <v>2.713481788531369</v>
+        <v>2.6760901716154</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.7579554022551394</v>
+        <v>-0.8055851999933388</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.412261155242302</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.84763305781778</v>
+        <v>-15.88183015284037</v>
       </c>
       <c r="F46" t="n">
-        <v>2.877004651024528</v>
+        <v>2.837073127357264</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9204963420351685</v>
+        <v>-0.9668692787005623</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.8567117075361653</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.11590425199371</v>
+        <v>-15.1563463754718</v>
       </c>
       <c r="F47" t="n">
-        <v>2.85260059852755</v>
+        <v>2.812511967226186</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.253485972511629</v>
+        <v>-1.300736093467419</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.3864651434985728</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.466120169656</v>
+        <v>-14.50632663168294</v>
       </c>
       <c r="F48" t="n">
-        <v>2.718090279131657</v>
+        <v>2.67904903205763</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.291767866020836</v>
+        <v>-1.337538556755511</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.006957711207932372</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.85908245609653</v>
+        <v>-13.90285002449642</v>
       </c>
       <c r="F49" t="n">
-        <v>3.112116225456245</v>
+        <v>3.067078703680707</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.48066361142126</v>
+        <v>-1.529655008654999</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2865408138323105</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.26226983105645</v>
+        <v>-13.30522567668015</v>
       </c>
       <c r="F50" t="n">
-        <v>3.166554020672142</v>
+        <v>3.121097545205669</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.44031313406306</v>
+        <v>-1.494436714010756</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5039719525836135</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.40696277870933</v>
+        <v>-12.44855702483749</v>
       </c>
       <c r="F51" t="n">
-        <v>3.151969195306459</v>
+        <v>3.105700997063799</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.451834360563779</v>
+        <v>-1.509911815969676</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6550715274216395</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38060797308893</v>
+        <v>-12.40931939322084</v>
       </c>
       <c r="F52" t="n">
-        <v>3.113582563374518</v>
+        <v>3.0655076273397</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.548638847775502</v>
+        <v>-1.608444487156506</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.7583602778345703</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.58141453072145</v>
+        <v>-11.61765402498735</v>
       </c>
       <c r="F53" t="n">
-        <v>3.387683015668895</v>
+        <v>3.336256450106595</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.694002686227186</v>
+        <v>-1.751739741759198</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.8282941213024707</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.34393324947538</v>
+        <v>-11.37748882165872</v>
       </c>
       <c r="F54" t="n">
-        <v>3.045685880837327</v>
+        <v>2.997584760196825</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.76168989191891</v>
+        <v>-1.823066607640922</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.8825850953534744</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.76510944853983</v>
+        <v>-10.80032774318407</v>
       </c>
       <c r="F55" t="n">
-        <v>2.927959893684526</v>
+        <v>2.879125604084888</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.151303732185836</v>
+        <v>-2.215298908476193</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.9358496610882312</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.21125266912345</v>
+        <v>-10.25008443935201</v>
       </c>
       <c r="F56" t="n">
-        <v>3.147936766031207</v>
+        <v>3.095410447030202</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.425325630663163</v>
+        <v>-2.485576408340786</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.9999674319031034</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.612044152663328</v>
+        <v>-9.644630894436384</v>
       </c>
       <c r="F57" t="n">
-        <v>3.168936819789336</v>
+        <v>3.112168594667612</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.909649189687135</v>
+        <v>-2.964859430770694</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>1.085299405990123</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.479052540397074</v>
+        <v>-9.508313837248332</v>
       </c>
       <c r="F58" t="n">
-        <v>3.129895572715309</v>
+        <v>3.07150390204121</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.734002854762538</v>
+        <v>-2.795863985689694</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.196203597771422</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.880446269867676</v>
+        <v>-8.910912058580372</v>
       </c>
       <c r="F59" t="n">
-        <v>3.233324765164945</v>
+        <v>3.171764757203149</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.101791826192307</v>
+        <v>-3.160091850746513</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.336929835538732</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.767093111864011</v>
+        <v>-8.794403655591852</v>
       </c>
       <c r="F60" t="n">
-        <v>3.031258163105745</v>
+        <v>2.972264246500927</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.816706931813722</v>
+        <v>-2.880819938829654</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.503967930456899</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.328880643448597</v>
+        <v>-8.353075219100107</v>
       </c>
       <c r="F61" t="n">
-        <v>3.095122416367684</v>
+        <v>3.033902808279773</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.27733342269417</v>
+        <v>-3.339430215072477</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.694614697354085</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.956103504636132</v>
+        <v>-7.978936480792102</v>
       </c>
       <c r="F62" t="n">
-        <v>2.906802732292296</v>
+        <v>2.849903584142155</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.395727117291899</v>
+        <v>-3.452966665315925</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.902864298092724</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.76654005179078</v>
+        <v>-7.785406060185707</v>
       </c>
       <c r="F63" t="n">
-        <v>3.192057826607824</v>
+        <v>3.128350680979985</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.375067463407655</v>
+        <v>-3.43373407244143</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.119726695290022</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.5010674270691</v>
+        <v>-7.517380436409892</v>
       </c>
       <c r="F64" t="n">
-        <v>3.049508833267111</v>
+        <v>2.984989964863085</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.704351972179908</v>
+        <v>-3.759706228594725</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.339661022324739</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.216336024867242</v>
+        <v>-7.23171948070627</v>
       </c>
       <c r="F65" t="n">
-        <v>3.148931781047178</v>
+        <v>3.082710913273728</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.740264158874762</v>
+        <v>-3.797268045447638</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>2.551793722084237</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.000889089303798</v>
+        <v>-7.016193991325776</v>
       </c>
       <c r="F66" t="n">
-        <v>2.997218175717257</v>
+        <v>2.932777861130281</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.793994969737206</v>
+        <v>-3.847817426719542</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>2.749703885368674</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.097431730458686</v>
+        <v>-7.10535257367793</v>
       </c>
       <c r="F67" t="n">
-        <v>2.996773037420638</v>
+        <v>2.931678107691576</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.681518996023937</v>
+        <v>-3.733364515277172</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.926420508444052</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.788073706611541</v>
+        <v>-6.798809394941756</v>
       </c>
       <c r="F68" t="n">
-        <v>2.963230557540136</v>
+        <v>2.89871168913611</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.656250851539406</v>
+        <v>-3.708057093884116</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>3.074605290290833</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.962135872892288</v>
+        <v>-6.966600348161317</v>
       </c>
       <c r="F69" t="n">
-        <v>2.722751138943311</v>
+        <v>2.660169931359861</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.698041482210196</v>
+        <v>-3.750214309034474</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>3.193886415472053</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.713853441801795</v>
+        <v>-6.721957577260824</v>
       </c>
       <c r="F70" t="n">
-        <v>2.78713908431892</v>
+        <v>2.722541662097844</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.504327769364016</v>
+        <v>-3.554955704452972</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.281123917783475</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.63363690229054</v>
+        <v>-6.639148761786906</v>
       </c>
       <c r="F71" t="n">
-        <v>2.693895703480147</v>
+        <v>2.632937941449071</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.496760418321499</v>
+        <v>-3.546419523000166</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>3.339498540143457</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.804622377403482</v>
+        <v>-6.808798822009993</v>
       </c>
       <c r="F72" t="n">
-        <v>2.840608049124529</v>
+        <v>2.774072966082878</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.370812464984094</v>
+        <v>-3.417879293700099</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.372833788371637</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.950955046265454</v>
+        <v>-6.954974383237865</v>
       </c>
       <c r="F73" t="n">
-        <v>2.596515154943388</v>
+        <v>2.53720702307037</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.289234325977299</v>
+        <v>-3.332870971348772</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.384317936329301</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.223091653133572</v>
+        <v>-7.227359743859975</v>
       </c>
       <c r="F74" t="n">
-        <v>2.730030459323311</v>
+        <v>2.669203620320652</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.257302199346329</v>
+        <v>-3.299668891342155</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.382061911299655</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.392846451779393</v>
+        <v>-7.396551573483602</v>
       </c>
       <c r="F75" t="n">
-        <v>2.28379240926592</v>
+        <v>2.226631415058944</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.992444912858211</v>
+        <v>-3.035649512235907</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.368282161071238</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.829893705241893</v>
+        <v>-7.832407427387504</v>
       </c>
       <c r="F76" t="n">
-        <v>2.531132194551809</v>
+        <v>2.469676925012747</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.918551955619509</v>
+        <v>-2.9606568015585</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.348640459680026</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.150825324801124</v>
+        <v>-8.15731910701062</v>
       </c>
       <c r="F77" t="n">
-        <v>2.378737789474117</v>
+        <v>2.32134113381599</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.790731802975738</v>
+        <v>-2.832902110428937</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.324117489340257</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.503008271243555</v>
+        <v>-8.513914159510712</v>
       </c>
       <c r="F78" t="n">
-        <v>2.274418320431244</v>
+        <v>2.219404463890311</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.626331756192183</v>
+        <v>-2.665713403140095</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.292026925158265</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.96346456218706</v>
+        <v>-8.977185295565189</v>
       </c>
       <c r="F79" t="n">
-        <v>2.385729079191599</v>
+        <v>2.326918454826565</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.341469430961908</v>
+        <v>-2.381819908320107</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.24994024227035</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.361693137723842</v>
+        <v>-9.379695054131215</v>
       </c>
       <c r="F80" t="n">
-        <v>2.096886693897439</v>
+        <v>2.041925206567873</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.791357050158261</v>
+        <v>-1.836093448968439</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.187937001126074</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.00144851608479</v>
+        <v>-10.02510630731978</v>
       </c>
       <c r="F81" t="n">
-        <v>2.240325963831389</v>
+        <v>2.185312107290456</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.894131627465811</v>
+        <v>-1.935228366085989</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.098899252342604</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.65764782681494</v>
+        <v>-10.68413355546375</v>
       </c>
       <c r="F82" t="n">
-        <v>2.219692494552829</v>
+        <v>2.163238484699306</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.668525064897187</v>
+        <v>-1.712397371719812</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.970734065094942</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.25803465053081</v>
+        <v>-11.28725667047355</v>
       </c>
       <c r="F83" t="n">
-        <v>1.901601904710252</v>
+        <v>1.851091800346873</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.265255952766341</v>
+        <v>-1.311484874100476</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.793620938214599</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.14194838458711</v>
+        <v>-12.17911743235477</v>
       </c>
       <c r="F84" t="n">
-        <v>1.960124498412768</v>
+        <v>1.906105656887806</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.118006822705448</v>
+        <v>-1.163764421137281</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.558806214670727</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.77335087373503</v>
+        <v>-12.81658165771841</v>
       </c>
       <c r="F85" t="n">
-        <v>1.88125646609421</v>
+        <v>1.82755183983745</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8163601652320793</v>
+        <v>-0.8601931951461782</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.25776510336107</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.56785727168518</v>
+        <v>-13.61639043831945</v>
       </c>
       <c r="F86" t="n">
-        <v>1.846928448043204</v>
+        <v>1.791783668473854</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6101171185663686</v>
+        <v>-0.6508210881012949</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.889544439438124</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.39246287386845</v>
+        <v>-14.44618059242805</v>
       </c>
       <c r="F87" t="n">
-        <v>1.863110534355578</v>
+        <v>1.806499416867954</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2188929250499102</v>
+        <v>-0.259767094521779</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.450807745221965</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.58649398533671</v>
+        <v>-15.64241121077372</v>
       </c>
       <c r="F88" t="n">
-        <v>1.88481757246716</v>
+        <v>1.829568054475076</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05870317210320761</v>
+        <v>0.01768498730007984</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.9482906045307402</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.52344463820484</v>
+        <v>-16.59259818181483</v>
       </c>
       <c r="F89" t="n">
-        <v>1.625773268440768</v>
+        <v>1.573587349313647</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2430558884175524</v>
+        <v>0.2052060409021223</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3880076332652093</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.92320819652798</v>
+        <v>-17.99532060058021</v>
       </c>
       <c r="F90" t="n">
-        <v>1.586260698464438</v>
+        <v>1.532241856939477</v>
       </c>
       <c r="G90" t="n">
-        <v>0.7039442253548351</v>
+        <v>0.6634890095739016</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2198806788016912</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.0710103866621</v>
+        <v>-19.15486658636336</v>
       </c>
       <c r="F91" t="n">
-        <v>1.277007413040027</v>
+        <v>1.226981723881791</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6749054976518868</v>
+        <v>0.6343979126595863</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.8585033459094135</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.3517780044568</v>
+        <v>-20.44356813968014</v>
       </c>
       <c r="F92" t="n">
-        <v>1.067190167698525</v>
+        <v>1.021314738541117</v>
       </c>
       <c r="G92" t="n">
-        <v>1.174141189612585</v>
+        <v>1.127244560833522</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.51798060226635</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.94382821461637</v>
+        <v>-22.04607909981025</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9282415576392862</v>
+        <v>0.8815805903113745</v>
       </c>
       <c r="G93" t="n">
-        <v>1.171588190558449</v>
+        <v>1.125752038309566</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.179823420664366</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.57450071815904</v>
+        <v>-23.68814190682522</v>
       </c>
       <c r="F94" t="n">
-        <v>1.032115888385541</v>
+        <v>0.9847610290070176</v>
       </c>
       <c r="G94" t="n">
-        <v>1.334364791789629</v>
+        <v>1.282401441810818</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.834272019807623</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.24260411552619</v>
+        <v>-25.37275469807579</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3095386022478374</v>
+        <v>0.2684156790219758</v>
       </c>
       <c r="G95" t="n">
-        <v>1.311217600365457</v>
+        <v>1.255536036379596</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.472248108476375</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.0094627532285</v>
+        <v>-27.14520374909151</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4766487557196289</v>
+        <v>0.4264004974130842</v>
       </c>
       <c r="G96" t="n">
-        <v>1.020319723525146</v>
+        <v>0.9650178363216947</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.078545860183414</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.92044146061252</v>
+        <v>-29.06505903780222</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1513759192951289</v>
+        <v>-0.1914907352021775</v>
       </c>
       <c r="G97" t="n">
-        <v>1.195691120090066</v>
+        <v>1.136108049857371</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.652500118512014</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.14711486641908</v>
+        <v>-31.29789891824724</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4228186341126354</v>
+        <v>-0.4693224938064465</v>
       </c>
       <c r="G98" t="n">
-        <v>1.069756259055503</v>
+        <v>1.005512329011153</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.17519965571622</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.3234483677992</v>
+        <v>-33.48551798467693</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.3958746748643632</v>
+        <v>-0.4401004738637139</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6909173840273177</v>
+        <v>0.6245917778311335</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.650719920483071</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.29298894579426</v>
+        <v>-35.467548619583</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4666778486324178</v>
+        <v>-0.5126318316068763</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4984212553454193</v>
+        <v>0.4276966353944151</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-6.05642827392327</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.10927102672408</v>
+        <v>-37.30121727868662</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8234561933722949</v>
+        <v>-0.8660192699107463</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06965376495707476</v>
+        <v>-0.136411417147036</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.403770111403374</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.41286171172578</v>
+        <v>-39.60868328532948</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7305008431960398</v>
+        <v>-0.7772534566438436</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6065560121934191</v>
+        <v>-0.6721222648247832</v>
       </c>
     </row>
   </sheetData>
